--- a/每週買賣報表/TCRIDAY.xlsx
+++ b/每週買賣報表/TCRIDAY.xlsx
@@ -115,6 +115,9 @@
     <t xml:space="preserve">1294  </t>
   </si>
   <si>
+    <t xml:space="preserve">1295  </t>
+  </si>
+  <si>
     <t xml:space="preserve">1301  </t>
   </si>
   <si>
@@ -2125,6 +2128,9 @@
     <t xml:space="preserve">3689  </t>
   </si>
   <si>
+    <t xml:space="preserve">3693  </t>
+  </si>
+  <si>
     <t xml:space="preserve">3694  </t>
   </si>
   <si>
@@ -2191,6 +2197,9 @@
     <t xml:space="preserve">4111  </t>
   </si>
   <si>
+    <t xml:space="preserve">4114  </t>
+  </si>
+  <si>
     <t xml:space="preserve">4116  </t>
   </si>
   <si>
@@ -2599,9 +2608,6 @@
     <t xml:space="preserve">4974  </t>
   </si>
   <si>
-    <t xml:space="preserve">4976  </t>
-  </si>
-  <si>
     <t xml:space="preserve">4977  </t>
   </si>
   <si>
@@ -3325,9 +3331,6 @@
     <t xml:space="preserve">6423  </t>
   </si>
   <si>
-    <t xml:space="preserve">6426  </t>
-  </si>
-  <si>
     <t xml:space="preserve">6428  </t>
   </si>
   <si>
@@ -3478,9 +3481,6 @@
     <t xml:space="preserve">6558  </t>
   </si>
   <si>
-    <t xml:space="preserve">6560  </t>
-  </si>
-  <si>
     <t xml:space="preserve">6561  </t>
   </si>
   <si>
@@ -3868,9 +3868,6 @@
     <t xml:space="preserve">6886  </t>
   </si>
   <si>
-    <t xml:space="preserve">6894  </t>
-  </si>
-  <si>
     <t xml:space="preserve">6895  </t>
   </si>
   <si>
@@ -4409,6 +4406,9 @@
   </si>
   <si>
     <t xml:space="preserve">8938  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8940  </t>
   </si>
   <si>
     <t xml:space="preserve">8941  </t>
@@ -5168,7 +5168,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5184,7 +5184,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5192,7 +5192,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5200,7 +5200,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -5216,7 +5216,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5224,7 +5224,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -5232,7 +5232,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -5240,7 +5240,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -5248,7 +5248,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5256,7 +5256,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5264,7 +5264,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5272,7 +5272,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -5288,7 +5288,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5304,7 +5304,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5312,7 +5312,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5320,7 +5320,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5336,7 +5336,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5352,7 +5352,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5360,7 +5360,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5368,7 +5368,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5392,7 +5392,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5400,7 +5400,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5408,7 +5408,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5416,7 +5416,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5424,7 +5424,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5448,7 +5448,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -5456,7 +5456,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -5464,7 +5464,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -5488,7 +5488,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -5496,7 +5496,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -5504,7 +5504,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -5520,7 +5520,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -5528,7 +5528,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -5536,7 +5536,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -5544,7 +5544,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -5552,7 +5552,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5560,7 +5560,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5592,7 +5592,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -5600,7 +5600,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -5608,7 +5608,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -5616,7 +5616,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5624,7 +5624,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -5640,7 +5640,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -5648,7 +5648,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -5656,7 +5656,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5664,7 +5664,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -5672,7 +5672,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -5680,7 +5680,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -5688,7 +5688,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -5696,7 +5696,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5704,7 +5704,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5712,7 +5712,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -5728,7 +5728,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -5744,7 +5744,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -5752,7 +5752,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -5760,7 +5760,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -5776,7 +5776,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5792,7 +5792,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -5816,7 +5816,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5832,7 +5832,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -5840,7 +5840,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -5848,7 +5848,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -5856,7 +5856,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5864,7 +5864,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -5872,7 +5872,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -5880,7 +5880,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -5888,7 +5888,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -5904,7 +5904,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -5920,7 +5920,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -5928,7 +5928,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -5936,7 +5936,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5944,7 +5944,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -5960,7 +5960,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -5968,7 +5968,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -5976,7 +5976,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -5992,7 +5992,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -6000,7 +6000,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -6032,7 +6032,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -6040,7 +6040,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -6056,7 +6056,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -6064,7 +6064,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -6072,7 +6072,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -6080,7 +6080,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -6088,7 +6088,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -6104,7 +6104,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -6112,7 +6112,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -6120,7 +6120,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -6128,7 +6128,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -6136,7 +6136,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -6152,7 +6152,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -6160,7 +6160,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -6168,7 +6168,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -6176,7 +6176,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -6184,7 +6184,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -6192,7 +6192,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -6216,7 +6216,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -6224,7 +6224,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -6280,7 +6280,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -6296,7 +6296,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -6304,7 +6304,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -6368,7 +6368,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -6392,7 +6392,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -6400,7 +6400,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -6408,7 +6408,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -6416,7 +6416,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -6432,7 +6432,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -6448,7 +6448,7 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -6456,7 +6456,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -6464,7 +6464,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -6472,7 +6472,7 @@
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -6480,7 +6480,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -6488,7 +6488,7 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -6496,7 +6496,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -6504,7 +6504,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -6512,7 +6512,7 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -6520,7 +6520,7 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -6528,7 +6528,7 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -6536,7 +6536,7 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -6544,7 +6544,7 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -6552,7 +6552,7 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -6568,7 +6568,7 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -6592,7 +6592,7 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -6608,7 +6608,7 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -6616,7 +6616,7 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -6624,7 +6624,7 @@
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -6632,7 +6632,7 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -6640,7 +6640,7 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -6648,7 +6648,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -6672,7 +6672,7 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -6696,7 +6696,7 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -6704,7 +6704,7 @@
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -6712,7 +6712,7 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -6720,7 +6720,7 @@
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -6736,7 +6736,7 @@
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -6744,7 +6744,7 @@
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -6752,7 +6752,7 @@
         <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -6760,7 +6760,7 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -6768,7 +6768,7 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -6776,7 +6776,7 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -6784,7 +6784,7 @@
         <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -6800,7 +6800,7 @@
         <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -6808,7 +6808,7 @@
         <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -6816,7 +6816,7 @@
         <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -6824,7 +6824,7 @@
         <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -6832,7 +6832,7 @@
         <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -6840,7 +6840,7 @@
         <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -6848,7 +6848,7 @@
         <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -6856,7 +6856,7 @@
         <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>1505</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -6864,7 +6864,7 @@
         <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -6872,7 +6872,7 @@
         <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -6888,7 +6888,7 @@
         <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -6896,7 +6896,7 @@
         <v>249</v>
       </c>
       <c r="B249" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -6904,7 +6904,7 @@
         <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>1504</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -6912,7 +6912,7 @@
         <v>251</v>
       </c>
       <c r="B251" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -6928,7 +6928,7 @@
         <v>253</v>
       </c>
       <c r="B253" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -6936,7 +6936,7 @@
         <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -6944,7 +6944,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -6952,7 +6952,7 @@
         <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>1504</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -6960,7 +6960,7 @@
         <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -6968,7 +6968,7 @@
         <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -6976,7 +6976,7 @@
         <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -6984,7 +6984,7 @@
         <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -7008,7 +7008,7 @@
         <v>263</v>
       </c>
       <c r="B263" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -7016,7 +7016,7 @@
         <v>264</v>
       </c>
       <c r="B264" t="s">
-        <v>1504</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -7024,7 +7024,7 @@
         <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -7032,7 +7032,7 @@
         <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -7040,7 +7040,7 @@
         <v>267</v>
       </c>
       <c r="B267" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -7056,7 +7056,7 @@
         <v>269</v>
       </c>
       <c r="B269" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -7064,7 +7064,7 @@
         <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -7072,7 +7072,7 @@
         <v>271</v>
       </c>
       <c r="B271" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -7088,7 +7088,7 @@
         <v>273</v>
       </c>
       <c r="B273" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -7096,7 +7096,7 @@
         <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -7104,7 +7104,7 @@
         <v>275</v>
       </c>
       <c r="B275" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -7112,7 +7112,7 @@
         <v>276</v>
       </c>
       <c r="B276" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -7128,7 +7128,7 @@
         <v>278</v>
       </c>
       <c r="B278" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -7136,7 +7136,7 @@
         <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -7144,7 +7144,7 @@
         <v>280</v>
       </c>
       <c r="B280" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -7152,7 +7152,7 @@
         <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -7160,7 +7160,7 @@
         <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -7168,7 +7168,7 @@
         <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -7176,7 +7176,7 @@
         <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -7184,7 +7184,7 @@
         <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -7192,7 +7192,7 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -7200,7 +7200,7 @@
         <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -7208,7 +7208,7 @@
         <v>288</v>
       </c>
       <c r="B288" t="s">
-        <v>1504</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -7216,7 +7216,7 @@
         <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -7224,7 +7224,7 @@
         <v>290</v>
       </c>
       <c r="B290" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -7232,7 +7232,7 @@
         <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -7240,7 +7240,7 @@
         <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -7256,7 +7256,7 @@
         <v>294</v>
       </c>
       <c r="B294" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -7272,7 +7272,7 @@
         <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -7280,7 +7280,7 @@
         <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -7288,7 +7288,7 @@
         <v>298</v>
       </c>
       <c r="B298" t="s">
-        <v>1504</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -7296,7 +7296,7 @@
         <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -7304,7 +7304,7 @@
         <v>300</v>
       </c>
       <c r="B300" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -7312,7 +7312,7 @@
         <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -7328,7 +7328,7 @@
         <v>303</v>
       </c>
       <c r="B303" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -7336,7 +7336,7 @@
         <v>304</v>
       </c>
       <c r="B304" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -7344,7 +7344,7 @@
         <v>305</v>
       </c>
       <c r="B305" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -7352,7 +7352,7 @@
         <v>306</v>
       </c>
       <c r="B306" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -7360,7 +7360,7 @@
         <v>307</v>
       </c>
       <c r="B307" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -7368,7 +7368,7 @@
         <v>308</v>
       </c>
       <c r="B308" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -7384,7 +7384,7 @@
         <v>310</v>
       </c>
       <c r="B310" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -7400,7 +7400,7 @@
         <v>312</v>
       </c>
       <c r="B312" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -7416,7 +7416,7 @@
         <v>314</v>
       </c>
       <c r="B314" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -7424,7 +7424,7 @@
         <v>315</v>
       </c>
       <c r="B315" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -7440,7 +7440,7 @@
         <v>317</v>
       </c>
       <c r="B317" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -7448,7 +7448,7 @@
         <v>318</v>
       </c>
       <c r="B318" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -7464,7 +7464,7 @@
         <v>320</v>
       </c>
       <c r="B320" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -7480,7 +7480,7 @@
         <v>322</v>
       </c>
       <c r="B322" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -7504,7 +7504,7 @@
         <v>325</v>
       </c>
       <c r="B325" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -7520,7 +7520,7 @@
         <v>327</v>
       </c>
       <c r="B327" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -7536,7 +7536,7 @@
         <v>329</v>
       </c>
       <c r="B329" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -7544,7 +7544,7 @@
         <v>330</v>
       </c>
       <c r="B330" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -7560,7 +7560,7 @@
         <v>332</v>
       </c>
       <c r="B332" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -7568,7 +7568,7 @@
         <v>333</v>
       </c>
       <c r="B333" t="s">
-        <v>1504</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -7576,7 +7576,7 @@
         <v>334</v>
       </c>
       <c r="B334" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -7584,7 +7584,7 @@
         <v>335</v>
       </c>
       <c r="B335" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -7592,7 +7592,7 @@
         <v>336</v>
       </c>
       <c r="B336" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -7600,7 +7600,7 @@
         <v>337</v>
       </c>
       <c r="B337" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -7608,7 +7608,7 @@
         <v>338</v>
       </c>
       <c r="B338" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -7616,7 +7616,7 @@
         <v>339</v>
       </c>
       <c r="B339" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -7624,7 +7624,7 @@
         <v>340</v>
       </c>
       <c r="B340" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -7632,7 +7632,7 @@
         <v>341</v>
       </c>
       <c r="B341" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -7648,7 +7648,7 @@
         <v>343</v>
       </c>
       <c r="B343" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -7656,7 +7656,7 @@
         <v>344</v>
       </c>
       <c r="B344" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -7664,7 +7664,7 @@
         <v>345</v>
       </c>
       <c r="B345" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -7688,7 +7688,7 @@
         <v>348</v>
       </c>
       <c r="B348" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -7696,7 +7696,7 @@
         <v>349</v>
       </c>
       <c r="B349" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -7704,7 +7704,7 @@
         <v>350</v>
       </c>
       <c r="B350" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -7712,7 +7712,7 @@
         <v>351</v>
       </c>
       <c r="B351" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -7720,7 +7720,7 @@
         <v>352</v>
       </c>
       <c r="B352" t="s">
-        <v>1504</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -7728,7 +7728,7 @@
         <v>353</v>
       </c>
       <c r="B353" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -7736,7 +7736,7 @@
         <v>354</v>
       </c>
       <c r="B354" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -7752,7 +7752,7 @@
         <v>356</v>
       </c>
       <c r="B356" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -7760,7 +7760,7 @@
         <v>357</v>
       </c>
       <c r="B357" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -7768,7 +7768,7 @@
         <v>358</v>
       </c>
       <c r="B358" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -7776,7 +7776,7 @@
         <v>359</v>
       </c>
       <c r="B359" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -7800,7 +7800,7 @@
         <v>362</v>
       </c>
       <c r="B362" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -7816,7 +7816,7 @@
         <v>364</v>
       </c>
       <c r="B364" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -7824,7 +7824,7 @@
         <v>365</v>
       </c>
       <c r="B365" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -7840,7 +7840,7 @@
         <v>367</v>
       </c>
       <c r="B367" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -7848,7 +7848,7 @@
         <v>368</v>
       </c>
       <c r="B368" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -7856,7 +7856,7 @@
         <v>369</v>
       </c>
       <c r="B369" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -7864,7 +7864,7 @@
         <v>370</v>
       </c>
       <c r="B370" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -7872,7 +7872,7 @@
         <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -7880,7 +7880,7 @@
         <v>372</v>
       </c>
       <c r="B372" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -7904,7 +7904,7 @@
         <v>375</v>
       </c>
       <c r="B375" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -7912,7 +7912,7 @@
         <v>376</v>
       </c>
       <c r="B376" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -7920,7 +7920,7 @@
         <v>377</v>
       </c>
       <c r="B377" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -7936,7 +7936,7 @@
         <v>379</v>
       </c>
       <c r="B379" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -7952,7 +7952,7 @@
         <v>381</v>
       </c>
       <c r="B381" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -7960,7 +7960,7 @@
         <v>382</v>
       </c>
       <c r="B382" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -7968,7 +7968,7 @@
         <v>383</v>
       </c>
       <c r="B383" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -7976,7 +7976,7 @@
         <v>384</v>
       </c>
       <c r="B384" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -7984,7 +7984,7 @@
         <v>385</v>
       </c>
       <c r="B385" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -7992,7 +7992,7 @@
         <v>386</v>
       </c>
       <c r="B386" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -8000,7 +8000,7 @@
         <v>387</v>
       </c>
       <c r="B387" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -8008,7 +8008,7 @@
         <v>388</v>
       </c>
       <c r="B388" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -8024,7 +8024,7 @@
         <v>390</v>
       </c>
       <c r="B390" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -8040,7 +8040,7 @@
         <v>392</v>
       </c>
       <c r="B392" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -8064,7 +8064,7 @@
         <v>395</v>
       </c>
       <c r="B395" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -8072,7 +8072,7 @@
         <v>396</v>
       </c>
       <c r="B396" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -8096,7 +8096,7 @@
         <v>399</v>
       </c>
       <c r="B399" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -8104,7 +8104,7 @@
         <v>400</v>
       </c>
       <c r="B400" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -8112,7 +8112,7 @@
         <v>401</v>
       </c>
       <c r="B401" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -8120,7 +8120,7 @@
         <v>402</v>
       </c>
       <c r="B402" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -8128,7 +8128,7 @@
         <v>403</v>
       </c>
       <c r="B403" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -8136,7 +8136,7 @@
         <v>404</v>
       </c>
       <c r="B404" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -8144,7 +8144,7 @@
         <v>405</v>
       </c>
       <c r="B405" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -8152,7 +8152,7 @@
         <v>406</v>
       </c>
       <c r="B406" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -8160,7 +8160,7 @@
         <v>407</v>
       </c>
       <c r="B407" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -8176,7 +8176,7 @@
         <v>409</v>
       </c>
       <c r="B409" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -8184,7 +8184,7 @@
         <v>410</v>
       </c>
       <c r="B410" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -8208,7 +8208,7 @@
         <v>413</v>
       </c>
       <c r="B413" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -8216,7 +8216,7 @@
         <v>414</v>
       </c>
       <c r="B414" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -8224,7 +8224,7 @@
         <v>415</v>
       </c>
       <c r="B415" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -8240,7 +8240,7 @@
         <v>417</v>
       </c>
       <c r="B417" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -8264,7 +8264,7 @@
         <v>420</v>
       </c>
       <c r="B420" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -8312,7 +8312,7 @@
         <v>426</v>
       </c>
       <c r="B426" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -8320,7 +8320,7 @@
         <v>427</v>
       </c>
       <c r="B427" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -8328,7 +8328,7 @@
         <v>428</v>
       </c>
       <c r="B428" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -8360,7 +8360,7 @@
         <v>432</v>
       </c>
       <c r="B432" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -8376,7 +8376,7 @@
         <v>434</v>
       </c>
       <c r="B434" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -8384,7 +8384,7 @@
         <v>435</v>
       </c>
       <c r="B435" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -8392,7 +8392,7 @@
         <v>436</v>
       </c>
       <c r="B436" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -8408,7 +8408,7 @@
         <v>438</v>
       </c>
       <c r="B438" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -8416,7 +8416,7 @@
         <v>439</v>
       </c>
       <c r="B439" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -8424,7 +8424,7 @@
         <v>440</v>
       </c>
       <c r="B440" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -8440,7 +8440,7 @@
         <v>442</v>
       </c>
       <c r="B442" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -8496,7 +8496,7 @@
         <v>449</v>
       </c>
       <c r="B449" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -8504,7 +8504,7 @@
         <v>450</v>
       </c>
       <c r="B450" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -8512,7 +8512,7 @@
         <v>451</v>
       </c>
       <c r="B451" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -8520,7 +8520,7 @@
         <v>452</v>
       </c>
       <c r="B452" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -8528,7 +8528,7 @@
         <v>453</v>
       </c>
       <c r="B453" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -8536,7 +8536,7 @@
         <v>454</v>
       </c>
       <c r="B454" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -8544,7 +8544,7 @@
         <v>455</v>
       </c>
       <c r="B455" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -8552,7 +8552,7 @@
         <v>456</v>
       </c>
       <c r="B456" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -8560,7 +8560,7 @@
         <v>457</v>
       </c>
       <c r="B457" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -8568,7 +8568,7 @@
         <v>458</v>
       </c>
       <c r="B458" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -8576,7 +8576,7 @@
         <v>459</v>
       </c>
       <c r="B459" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -8584,7 +8584,7 @@
         <v>460</v>
       </c>
       <c r="B460" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -8592,7 +8592,7 @@
         <v>461</v>
       </c>
       <c r="B461" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -8600,7 +8600,7 @@
         <v>462</v>
       </c>
       <c r="B462" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -8616,7 +8616,7 @@
         <v>464</v>
       </c>
       <c r="B464" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -8624,7 +8624,7 @@
         <v>465</v>
       </c>
       <c r="B465" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -8632,7 +8632,7 @@
         <v>466</v>
       </c>
       <c r="B466" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -8648,7 +8648,7 @@
         <v>468</v>
       </c>
       <c r="B468" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -8656,7 +8656,7 @@
         <v>469</v>
       </c>
       <c r="B469" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -8664,7 +8664,7 @@
         <v>470</v>
       </c>
       <c r="B470" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -8672,7 +8672,7 @@
         <v>471</v>
       </c>
       <c r="B471" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -8688,7 +8688,7 @@
         <v>473</v>
       </c>
       <c r="B473" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -8696,7 +8696,7 @@
         <v>474</v>
       </c>
       <c r="B474" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -8704,7 +8704,7 @@
         <v>475</v>
       </c>
       <c r="B475" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -8712,7 +8712,7 @@
         <v>476</v>
       </c>
       <c r="B476" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -8720,7 +8720,7 @@
         <v>477</v>
       </c>
       <c r="B477" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -8744,7 +8744,7 @@
         <v>480</v>
       </c>
       <c r="B480" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -8752,7 +8752,7 @@
         <v>481</v>
       </c>
       <c r="B481" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -8768,7 +8768,7 @@
         <v>483</v>
       </c>
       <c r="B483" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -8776,7 +8776,7 @@
         <v>484</v>
       </c>
       <c r="B484" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -8784,7 +8784,7 @@
         <v>485</v>
       </c>
       <c r="B485" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -8792,7 +8792,7 @@
         <v>486</v>
       </c>
       <c r="B486" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -8832,7 +8832,7 @@
         <v>491</v>
       </c>
       <c r="B491" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -8840,7 +8840,7 @@
         <v>492</v>
       </c>
       <c r="B492" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -8880,7 +8880,7 @@
         <v>497</v>
       </c>
       <c r="B497" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -8896,7 +8896,7 @@
         <v>499</v>
       </c>
       <c r="B499" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -8920,7 +8920,7 @@
         <v>502</v>
       </c>
       <c r="B502" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -8944,7 +8944,7 @@
         <v>505</v>
       </c>
       <c r="B505" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -8968,7 +8968,7 @@
         <v>508</v>
       </c>
       <c r="B508" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -8976,7 +8976,7 @@
         <v>509</v>
       </c>
       <c r="B509" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -9008,7 +9008,7 @@
         <v>513</v>
       </c>
       <c r="B513" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -9016,7 +9016,7 @@
         <v>514</v>
       </c>
       <c r="B514" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -9024,7 +9024,7 @@
         <v>515</v>
       </c>
       <c r="B515" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -9032,7 +9032,7 @@
         <v>516</v>
       </c>
       <c r="B516" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -9040,7 +9040,7 @@
         <v>517</v>
       </c>
       <c r="B517" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -9056,7 +9056,7 @@
         <v>519</v>
       </c>
       <c r="B519" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -9080,7 +9080,7 @@
         <v>522</v>
       </c>
       <c r="B522" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -9120,7 +9120,7 @@
         <v>527</v>
       </c>
       <c r="B527" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -9128,7 +9128,7 @@
         <v>528</v>
       </c>
       <c r="B528" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -9168,7 +9168,7 @@
         <v>533</v>
       </c>
       <c r="B533" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -9176,7 +9176,7 @@
         <v>534</v>
       </c>
       <c r="B534" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -9184,7 +9184,7 @@
         <v>535</v>
       </c>
       <c r="B535" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -9192,7 +9192,7 @@
         <v>536</v>
       </c>
       <c r="B536" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -9200,7 +9200,7 @@
         <v>537</v>
       </c>
       <c r="B537" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -9208,7 +9208,7 @@
         <v>538</v>
       </c>
       <c r="B538" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -9216,7 +9216,7 @@
         <v>539</v>
       </c>
       <c r="B539" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -9224,7 +9224,7 @@
         <v>540</v>
       </c>
       <c r="B540" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -9240,7 +9240,7 @@
         <v>542</v>
       </c>
       <c r="B542" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -9256,7 +9256,7 @@
         <v>544</v>
       </c>
       <c r="B544" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -9264,7 +9264,7 @@
         <v>545</v>
       </c>
       <c r="B545" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -9272,7 +9272,7 @@
         <v>546</v>
       </c>
       <c r="B546" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -9280,7 +9280,7 @@
         <v>547</v>
       </c>
       <c r="B547" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -9288,7 +9288,7 @@
         <v>548</v>
       </c>
       <c r="B548" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -9296,7 +9296,7 @@
         <v>549</v>
       </c>
       <c r="B549" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -9304,7 +9304,7 @@
         <v>550</v>
       </c>
       <c r="B550" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -9312,7 +9312,7 @@
         <v>551</v>
       </c>
       <c r="B551" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -9320,7 +9320,7 @@
         <v>552</v>
       </c>
       <c r="B552" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -9368,7 +9368,7 @@
         <v>558</v>
       </c>
       <c r="B558" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -9376,7 +9376,7 @@
         <v>559</v>
       </c>
       <c r="B559" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -9400,7 +9400,7 @@
         <v>562</v>
       </c>
       <c r="B562" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -9408,7 +9408,7 @@
         <v>563</v>
       </c>
       <c r="B563" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -9440,7 +9440,7 @@
         <v>567</v>
       </c>
       <c r="B567" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -9448,7 +9448,7 @@
         <v>568</v>
       </c>
       <c r="B568" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -9464,7 +9464,7 @@
         <v>570</v>
       </c>
       <c r="B570" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -9472,7 +9472,7 @@
         <v>571</v>
       </c>
       <c r="B571" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -9496,7 +9496,7 @@
         <v>574</v>
       </c>
       <c r="B574" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -9504,7 +9504,7 @@
         <v>575</v>
       </c>
       <c r="B575" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -9512,7 +9512,7 @@
         <v>576</v>
       </c>
       <c r="B576" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -9536,7 +9536,7 @@
         <v>579</v>
       </c>
       <c r="B579" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -9544,7 +9544,7 @@
         <v>580</v>
       </c>
       <c r="B580" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -9560,7 +9560,7 @@
         <v>582</v>
       </c>
       <c r="B582" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -9568,7 +9568,7 @@
         <v>583</v>
       </c>
       <c r="B583" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -9584,7 +9584,7 @@
         <v>585</v>
       </c>
       <c r="B585" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -9592,7 +9592,7 @@
         <v>586</v>
       </c>
       <c r="B586" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -9616,7 +9616,7 @@
         <v>589</v>
       </c>
       <c r="B589" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -9624,7 +9624,7 @@
         <v>590</v>
       </c>
       <c r="B590" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -9632,7 +9632,7 @@
         <v>591</v>
       </c>
       <c r="B591" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -9640,7 +9640,7 @@
         <v>592</v>
       </c>
       <c r="B592" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -9656,7 +9656,7 @@
         <v>594</v>
       </c>
       <c r="B594" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -9664,7 +9664,7 @@
         <v>595</v>
       </c>
       <c r="B595" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -9672,7 +9672,7 @@
         <v>596</v>
       </c>
       <c r="B596" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -9688,7 +9688,7 @@
         <v>598</v>
       </c>
       <c r="B598" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -9704,7 +9704,7 @@
         <v>600</v>
       </c>
       <c r="B600" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -9712,7 +9712,7 @@
         <v>601</v>
       </c>
       <c r="B601" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -9720,7 +9720,7 @@
         <v>602</v>
       </c>
       <c r="B602" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -9728,7 +9728,7 @@
         <v>603</v>
       </c>
       <c r="B603" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -9736,7 +9736,7 @@
         <v>604</v>
       </c>
       <c r="B604" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -9784,7 +9784,7 @@
         <v>610</v>
       </c>
       <c r="B610" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -9792,7 +9792,7 @@
         <v>611</v>
       </c>
       <c r="B611" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -9800,7 +9800,7 @@
         <v>612</v>
       </c>
       <c r="B612" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -9816,7 +9816,7 @@
         <v>614</v>
       </c>
       <c r="B614" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -9832,7 +9832,7 @@
         <v>616</v>
       </c>
       <c r="B616" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -9856,7 +9856,7 @@
         <v>619</v>
       </c>
       <c r="B619" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -9872,7 +9872,7 @@
         <v>621</v>
       </c>
       <c r="B621" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -9880,7 +9880,7 @@
         <v>622</v>
       </c>
       <c r="B622" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -9888,7 +9888,7 @@
         <v>623</v>
       </c>
       <c r="B623" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -9896,7 +9896,7 @@
         <v>624</v>
       </c>
       <c r="B624" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -9912,7 +9912,7 @@
         <v>626</v>
       </c>
       <c r="B626" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -9920,7 +9920,7 @@
         <v>627</v>
       </c>
       <c r="B627" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -9952,7 +9952,7 @@
         <v>631</v>
       </c>
       <c r="B631" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -9960,7 +9960,7 @@
         <v>632</v>
       </c>
       <c r="B632" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -9976,7 +9976,7 @@
         <v>634</v>
       </c>
       <c r="B634" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -9984,7 +9984,7 @@
         <v>635</v>
       </c>
       <c r="B635" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -9992,7 +9992,7 @@
         <v>636</v>
       </c>
       <c r="B636" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -10008,7 +10008,7 @@
         <v>638</v>
       </c>
       <c r="B638" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -10032,7 +10032,7 @@
         <v>641</v>
       </c>
       <c r="B641" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -10056,7 +10056,7 @@
         <v>644</v>
       </c>
       <c r="B644" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -10072,7 +10072,7 @@
         <v>646</v>
       </c>
       <c r="B646" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -10080,7 +10080,7 @@
         <v>647</v>
       </c>
       <c r="B647" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -10088,7 +10088,7 @@
         <v>648</v>
       </c>
       <c r="B648" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -10096,7 +10096,7 @@
         <v>649</v>
       </c>
       <c r="B649" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -10104,7 +10104,7 @@
         <v>650</v>
       </c>
       <c r="B650" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -10128,7 +10128,7 @@
         <v>653</v>
       </c>
       <c r="B653" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -10136,7 +10136,7 @@
         <v>654</v>
       </c>
       <c r="B654" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -10152,7 +10152,7 @@
         <v>656</v>
       </c>
       <c r="B656" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -10160,7 +10160,7 @@
         <v>657</v>
       </c>
       <c r="B657" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -10168,7 +10168,7 @@
         <v>658</v>
       </c>
       <c r="B658" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -10224,7 +10224,7 @@
         <v>665</v>
       </c>
       <c r="B665" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -10240,7 +10240,7 @@
         <v>667</v>
       </c>
       <c r="B667" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -10248,7 +10248,7 @@
         <v>668</v>
       </c>
       <c r="B668" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -10272,7 +10272,7 @@
         <v>671</v>
       </c>
       <c r="B671" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -10288,7 +10288,7 @@
         <v>673</v>
       </c>
       <c r="B673" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -10296,7 +10296,7 @@
         <v>674</v>
       </c>
       <c r="B674" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -10312,7 +10312,7 @@
         <v>676</v>
       </c>
       <c r="B676" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -10320,7 +10320,7 @@
         <v>677</v>
       </c>
       <c r="B677" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -10328,7 +10328,7 @@
         <v>678</v>
       </c>
       <c r="B678" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -10344,7 +10344,7 @@
         <v>680</v>
       </c>
       <c r="B680" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -10352,7 +10352,7 @@
         <v>681</v>
       </c>
       <c r="B681" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -10376,7 +10376,7 @@
         <v>684</v>
       </c>
       <c r="B684" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -10400,7 +10400,7 @@
         <v>687</v>
       </c>
       <c r="B687" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -10408,7 +10408,7 @@
         <v>688</v>
       </c>
       <c r="B688" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -10416,7 +10416,7 @@
         <v>689</v>
       </c>
       <c r="B689" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -10424,7 +10424,7 @@
         <v>690</v>
       </c>
       <c r="B690" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -10432,7 +10432,7 @@
         <v>691</v>
       </c>
       <c r="B691" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -10440,7 +10440,7 @@
         <v>692</v>
       </c>
       <c r="B692" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -10448,7 +10448,7 @@
         <v>693</v>
       </c>
       <c r="B693" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -10456,7 +10456,7 @@
         <v>694</v>
       </c>
       <c r="B694" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -10464,7 +10464,7 @@
         <v>695</v>
       </c>
       <c r="B695" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -10472,7 +10472,7 @@
         <v>696</v>
       </c>
       <c r="B696" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -10496,7 +10496,7 @@
         <v>699</v>
       </c>
       <c r="B699" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -10512,7 +10512,7 @@
         <v>701</v>
       </c>
       <c r="B701" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -10520,7 +10520,7 @@
         <v>702</v>
       </c>
       <c r="B702" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -10536,7 +10536,7 @@
         <v>704</v>
       </c>
       <c r="B704" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -10560,7 +10560,7 @@
         <v>707</v>
       </c>
       <c r="B707" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -10568,7 +10568,7 @@
         <v>708</v>
       </c>
       <c r="B708" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -10576,7 +10576,7 @@
         <v>709</v>
       </c>
       <c r="B709" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -10584,7 +10584,7 @@
         <v>710</v>
       </c>
       <c r="B710" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -10592,7 +10592,7 @@
         <v>711</v>
       </c>
       <c r="B711" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -10600,7 +10600,7 @@
         <v>712</v>
       </c>
       <c r="B712" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -10608,7 +10608,7 @@
         <v>713</v>
       </c>
       <c r="B713" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -10624,7 +10624,7 @@
         <v>715</v>
       </c>
       <c r="B715" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -10632,7 +10632,7 @@
         <v>716</v>
       </c>
       <c r="B716" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -10648,7 +10648,7 @@
         <v>718</v>
       </c>
       <c r="B718" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -10656,7 +10656,7 @@
         <v>719</v>
       </c>
       <c r="B719" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -10672,7 +10672,7 @@
         <v>721</v>
       </c>
       <c r="B721" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -10680,7 +10680,7 @@
         <v>722</v>
       </c>
       <c r="B722" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -10688,7 +10688,7 @@
         <v>723</v>
       </c>
       <c r="B723" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -10712,7 +10712,7 @@
         <v>726</v>
       </c>
       <c r="B726" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -10744,7 +10744,7 @@
         <v>730</v>
       </c>
       <c r="B730" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -10768,7 +10768,7 @@
         <v>733</v>
       </c>
       <c r="B733" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -10784,7 +10784,7 @@
         <v>735</v>
       </c>
       <c r="B735" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -10808,7 +10808,7 @@
         <v>738</v>
       </c>
       <c r="B738" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -10840,7 +10840,7 @@
         <v>742</v>
       </c>
       <c r="B742" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -10848,7 +10848,7 @@
         <v>743</v>
       </c>
       <c r="B743" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -10864,7 +10864,7 @@
         <v>745</v>
       </c>
       <c r="B745" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -10872,7 +10872,7 @@
         <v>746</v>
       </c>
       <c r="B746" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -10920,7 +10920,7 @@
         <v>752</v>
       </c>
       <c r="B752" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -10928,7 +10928,7 @@
         <v>753</v>
       </c>
       <c r="B753" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -10952,7 +10952,7 @@
         <v>756</v>
       </c>
       <c r="B756" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -10968,7 +10968,7 @@
         <v>758</v>
       </c>
       <c r="B758" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -10992,7 +10992,7 @@
         <v>761</v>
       </c>
       <c r="B761" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -11000,7 +11000,7 @@
         <v>762</v>
       </c>
       <c r="B762" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -11008,7 +11008,7 @@
         <v>763</v>
       </c>
       <c r="B763" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -11016,7 +11016,7 @@
         <v>764</v>
       </c>
       <c r="B764" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -11024,7 +11024,7 @@
         <v>765</v>
       </c>
       <c r="B765" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -11032,7 +11032,7 @@
         <v>766</v>
       </c>
       <c r="B766" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -11048,7 +11048,7 @@
         <v>768</v>
       </c>
       <c r="B768" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -11056,7 +11056,7 @@
         <v>769</v>
       </c>
       <c r="B769" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -11064,7 +11064,7 @@
         <v>770</v>
       </c>
       <c r="B770" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -11072,7 +11072,7 @@
         <v>771</v>
       </c>
       <c r="B771" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -11096,7 +11096,7 @@
         <v>774</v>
       </c>
       <c r="B774" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -11104,7 +11104,7 @@
         <v>775</v>
       </c>
       <c r="B775" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -11112,7 +11112,7 @@
         <v>776</v>
       </c>
       <c r="B776" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -11128,7 +11128,7 @@
         <v>778</v>
       </c>
       <c r="B778" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -11136,7 +11136,7 @@
         <v>779</v>
       </c>
       <c r="B779" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -11144,7 +11144,7 @@
         <v>780</v>
       </c>
       <c r="B780" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -11208,7 +11208,7 @@
         <v>788</v>
       </c>
       <c r="B788" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -11232,7 +11232,7 @@
         <v>791</v>
       </c>
       <c r="B791" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -11240,7 +11240,7 @@
         <v>792</v>
       </c>
       <c r="B792" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -11272,7 +11272,7 @@
         <v>796</v>
       </c>
       <c r="B796" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -11288,7 +11288,7 @@
         <v>798</v>
       </c>
       <c r="B798" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -11312,7 +11312,7 @@
         <v>801</v>
       </c>
       <c r="B801" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -11320,7 +11320,7 @@
         <v>802</v>
       </c>
       <c r="B802" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -11328,7 +11328,7 @@
         <v>803</v>
       </c>
       <c r="B803" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -11352,7 +11352,7 @@
         <v>806</v>
       </c>
       <c r="B806" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -11360,7 +11360,7 @@
         <v>807</v>
       </c>
       <c r="B807" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -11376,7 +11376,7 @@
         <v>809</v>
       </c>
       <c r="B809" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -11384,7 +11384,7 @@
         <v>810</v>
       </c>
       <c r="B810" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -11392,7 +11392,7 @@
         <v>811</v>
       </c>
       <c r="B811" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -11400,7 +11400,7 @@
         <v>812</v>
       </c>
       <c r="B812" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -11408,7 +11408,7 @@
         <v>813</v>
       </c>
       <c r="B813" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -11424,7 +11424,7 @@
         <v>815</v>
       </c>
       <c r="B815" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -11432,7 +11432,7 @@
         <v>816</v>
       </c>
       <c r="B816" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -11448,7 +11448,7 @@
         <v>818</v>
       </c>
       <c r="B818" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -11456,7 +11456,7 @@
         <v>819</v>
       </c>
       <c r="B819" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -11464,7 +11464,7 @@
         <v>820</v>
       </c>
       <c r="B820" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -11472,7 +11472,7 @@
         <v>821</v>
       </c>
       <c r="B821" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -11480,7 +11480,7 @@
         <v>822</v>
       </c>
       <c r="B822" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -11488,7 +11488,7 @@
         <v>823</v>
       </c>
       <c r="B823" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -11504,7 +11504,7 @@
         <v>825</v>
       </c>
       <c r="B825" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -11520,7 +11520,7 @@
         <v>827</v>
       </c>
       <c r="B827" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -11528,7 +11528,7 @@
         <v>828</v>
       </c>
       <c r="B828" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -11536,7 +11536,7 @@
         <v>829</v>
       </c>
       <c r="B829" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -11560,7 +11560,7 @@
         <v>832</v>
       </c>
       <c r="B832" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -11576,7 +11576,7 @@
         <v>834</v>
       </c>
       <c r="B834" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -11584,7 +11584,7 @@
         <v>835</v>
       </c>
       <c r="B835" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -11608,7 +11608,7 @@
         <v>838</v>
       </c>
       <c r="B838" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -11616,7 +11616,7 @@
         <v>839</v>
       </c>
       <c r="B839" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -11624,7 +11624,7 @@
         <v>840</v>
       </c>
       <c r="B840" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -11640,7 +11640,7 @@
         <v>842</v>
       </c>
       <c r="B842" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -11664,7 +11664,7 @@
         <v>845</v>
       </c>
       <c r="B845" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -11672,7 +11672,7 @@
         <v>846</v>
       </c>
       <c r="B846" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -11696,7 +11696,7 @@
         <v>849</v>
       </c>
       <c r="B849" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -11720,7 +11720,7 @@
         <v>852</v>
       </c>
       <c r="B852" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -11736,7 +11736,7 @@
         <v>854</v>
       </c>
       <c r="B854" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -11744,7 +11744,7 @@
         <v>855</v>
       </c>
       <c r="B855" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -11760,7 +11760,7 @@
         <v>857</v>
       </c>
       <c r="B857" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -11776,7 +11776,7 @@
         <v>859</v>
       </c>
       <c r="B859" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -11784,7 +11784,7 @@
         <v>860</v>
       </c>
       <c r="B860" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -11808,7 +11808,7 @@
         <v>863</v>
       </c>
       <c r="B863" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -11816,7 +11816,7 @@
         <v>864</v>
       </c>
       <c r="B864" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -11832,7 +11832,7 @@
         <v>866</v>
       </c>
       <c r="B866" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -11848,7 +11848,7 @@
         <v>868</v>
       </c>
       <c r="B868" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -11856,7 +11856,7 @@
         <v>869</v>
       </c>
       <c r="B869" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -11864,7 +11864,7 @@
         <v>870</v>
       </c>
       <c r="B870" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -11872,7 +11872,7 @@
         <v>871</v>
       </c>
       <c r="B871" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -11880,7 +11880,7 @@
         <v>872</v>
       </c>
       <c r="B872" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -11888,7 +11888,7 @@
         <v>873</v>
       </c>
       <c r="B873" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -11896,7 +11896,7 @@
         <v>874</v>
       </c>
       <c r="B874" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -11904,7 +11904,7 @@
         <v>875</v>
       </c>
       <c r="B875" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -11912,7 +11912,7 @@
         <v>876</v>
       </c>
       <c r="B876" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -11920,7 +11920,7 @@
         <v>877</v>
       </c>
       <c r="B877" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -11928,7 +11928,7 @@
         <v>878</v>
       </c>
       <c r="B878" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -11992,7 +11992,7 @@
         <v>886</v>
       </c>
       <c r="B886" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -12008,7 +12008,7 @@
         <v>888</v>
       </c>
       <c r="B888" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -12064,7 +12064,7 @@
         <v>895</v>
       </c>
       <c r="B895" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -12080,7 +12080,7 @@
         <v>897</v>
       </c>
       <c r="B897" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -12088,7 +12088,7 @@
         <v>898</v>
       </c>
       <c r="B898" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -12096,7 +12096,7 @@
         <v>899</v>
       </c>
       <c r="B899" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -12104,7 +12104,7 @@
         <v>900</v>
       </c>
       <c r="B900" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -12112,7 +12112,7 @@
         <v>901</v>
       </c>
       <c r="B901" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -12120,7 +12120,7 @@
         <v>902</v>
       </c>
       <c r="B902" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -12128,7 +12128,7 @@
         <v>903</v>
       </c>
       <c r="B903" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -12144,7 +12144,7 @@
         <v>905</v>
       </c>
       <c r="B905" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -12160,7 +12160,7 @@
         <v>907</v>
       </c>
       <c r="B907" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -12168,7 +12168,7 @@
         <v>908</v>
       </c>
       <c r="B908" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -12176,7 +12176,7 @@
         <v>909</v>
       </c>
       <c r="B909" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -12184,7 +12184,7 @@
         <v>910</v>
       </c>
       <c r="B910" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -12192,7 +12192,7 @@
         <v>911</v>
       </c>
       <c r="B911" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -12200,7 +12200,7 @@
         <v>912</v>
       </c>
       <c r="B912" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -12208,7 +12208,7 @@
         <v>913</v>
       </c>
       <c r="B913" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -12216,7 +12216,7 @@
         <v>914</v>
       </c>
       <c r="B914" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -12224,7 +12224,7 @@
         <v>915</v>
       </c>
       <c r="B915" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -12232,7 +12232,7 @@
         <v>916</v>
       </c>
       <c r="B916" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -12240,7 +12240,7 @@
         <v>917</v>
       </c>
       <c r="B917" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -12248,7 +12248,7 @@
         <v>918</v>
       </c>
       <c r="B918" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -12264,7 +12264,7 @@
         <v>920</v>
       </c>
       <c r="B920" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -12280,7 +12280,7 @@
         <v>922</v>
       </c>
       <c r="B922" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -12288,7 +12288,7 @@
         <v>923</v>
       </c>
       <c r="B923" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -12304,7 +12304,7 @@
         <v>925</v>
       </c>
       <c r="B925" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -12312,7 +12312,7 @@
         <v>926</v>
       </c>
       <c r="B926" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -12320,7 +12320,7 @@
         <v>927</v>
       </c>
       <c r="B927" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -12328,7 +12328,7 @@
         <v>928</v>
       </c>
       <c r="B928" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -12352,7 +12352,7 @@
         <v>931</v>
       </c>
       <c r="B931" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -12384,7 +12384,7 @@
         <v>935</v>
       </c>
       <c r="B935" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -12400,7 +12400,7 @@
         <v>937</v>
       </c>
       <c r="B937" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -12416,7 +12416,7 @@
         <v>939</v>
       </c>
       <c r="B939" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -12432,7 +12432,7 @@
         <v>941</v>
       </c>
       <c r="B941" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -12440,7 +12440,7 @@
         <v>942</v>
       </c>
       <c r="B942" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -12448,7 +12448,7 @@
         <v>943</v>
       </c>
       <c r="B943" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -12456,7 +12456,7 @@
         <v>944</v>
       </c>
       <c r="B944" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -12472,7 +12472,7 @@
         <v>946</v>
       </c>
       <c r="B946" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -12496,7 +12496,7 @@
         <v>949</v>
       </c>
       <c r="B949" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -12512,7 +12512,7 @@
         <v>951</v>
       </c>
       <c r="B951" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -12528,7 +12528,7 @@
         <v>953</v>
       </c>
       <c r="B953" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -12544,7 +12544,7 @@
         <v>955</v>
       </c>
       <c r="B955" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -12600,7 +12600,7 @@
         <v>962</v>
       </c>
       <c r="B962" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -12608,7 +12608,7 @@
         <v>963</v>
       </c>
       <c r="B963" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -12624,7 +12624,7 @@
         <v>965</v>
       </c>
       <c r="B965" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -12648,7 +12648,7 @@
         <v>968</v>
       </c>
       <c r="B968" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -12656,7 +12656,7 @@
         <v>969</v>
       </c>
       <c r="B969" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -12672,7 +12672,7 @@
         <v>971</v>
       </c>
       <c r="B971" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -12696,7 +12696,7 @@
         <v>974</v>
       </c>
       <c r="B974" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -12704,7 +12704,7 @@
         <v>975</v>
       </c>
       <c r="B975" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -12712,7 +12712,7 @@
         <v>976</v>
       </c>
       <c r="B976" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -12720,7 +12720,7 @@
         <v>977</v>
       </c>
       <c r="B977" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -12728,7 +12728,7 @@
         <v>978</v>
       </c>
       <c r="B978" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -12736,7 +12736,7 @@
         <v>979</v>
       </c>
       <c r="B979" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -12744,7 +12744,7 @@
         <v>980</v>
       </c>
       <c r="B980" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -12752,7 +12752,7 @@
         <v>981</v>
       </c>
       <c r="B981" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -12768,7 +12768,7 @@
         <v>983</v>
       </c>
       <c r="B983" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -12776,7 +12776,7 @@
         <v>984</v>
       </c>
       <c r="B984" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -12792,7 +12792,7 @@
         <v>986</v>
       </c>
       <c r="B986" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -12800,7 +12800,7 @@
         <v>987</v>
       </c>
       <c r="B987" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -12808,7 +12808,7 @@
         <v>988</v>
       </c>
       <c r="B988" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -12824,7 +12824,7 @@
         <v>990</v>
       </c>
       <c r="B990" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -12832,7 +12832,7 @@
         <v>991</v>
       </c>
       <c r="B991" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -12840,7 +12840,7 @@
         <v>992</v>
       </c>
       <c r="B992" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -12848,7 +12848,7 @@
         <v>993</v>
       </c>
       <c r="B993" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -12864,7 +12864,7 @@
         <v>995</v>
       </c>
       <c r="B995" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -12872,7 +12872,7 @@
         <v>996</v>
       </c>
       <c r="B996" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -12880,7 +12880,7 @@
         <v>997</v>
       </c>
       <c r="B997" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -12888,7 +12888,7 @@
         <v>998</v>
       </c>
       <c r="B998" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -12896,7 +12896,7 @@
         <v>999</v>
       </c>
       <c r="B999" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -12904,7 +12904,7 @@
         <v>1000</v>
       </c>
       <c r="B1000" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -12912,7 +12912,7 @@
         <v>1001</v>
       </c>
       <c r="B1001" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
@@ -12928,7 +12928,7 @@
         <v>1003</v>
       </c>
       <c r="B1003" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -12968,7 +12968,7 @@
         <v>1008</v>
       </c>
       <c r="B1008" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -12984,7 +12984,7 @@
         <v>1010</v>
       </c>
       <c r="B1010" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
@@ -13000,7 +13000,7 @@
         <v>1012</v>
       </c>
       <c r="B1012" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -13008,7 +13008,7 @@
         <v>1013</v>
       </c>
       <c r="B1013" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -13016,7 +13016,7 @@
         <v>1014</v>
       </c>
       <c r="B1014" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
@@ -13024,7 +13024,7 @@
         <v>1015</v>
       </c>
       <c r="B1015" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -13040,7 +13040,7 @@
         <v>1017</v>
       </c>
       <c r="B1017" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
@@ -13056,7 +13056,7 @@
         <v>1019</v>
       </c>
       <c r="B1019" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -13064,7 +13064,7 @@
         <v>1020</v>
       </c>
       <c r="B1020" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -13072,7 +13072,7 @@
         <v>1021</v>
       </c>
       <c r="B1021" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -13080,7 +13080,7 @@
         <v>1022</v>
       </c>
       <c r="B1022" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -13096,7 +13096,7 @@
         <v>1024</v>
       </c>
       <c r="B1024" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -13104,7 +13104,7 @@
         <v>1025</v>
       </c>
       <c r="B1025" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
@@ -13112,7 +13112,7 @@
         <v>1026</v>
       </c>
       <c r="B1026" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -13120,7 +13120,7 @@
         <v>1027</v>
       </c>
       <c r="B1027" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -13128,7 +13128,7 @@
         <v>1028</v>
       </c>
       <c r="B1028" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -13136,7 +13136,7 @@
         <v>1029</v>
       </c>
       <c r="B1029" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -13144,7 +13144,7 @@
         <v>1030</v>
       </c>
       <c r="B1030" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -13160,7 +13160,7 @@
         <v>1032</v>
       </c>
       <c r="B1032" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
@@ -13176,7 +13176,7 @@
         <v>1034</v>
       </c>
       <c r="B1034" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -13184,7 +13184,7 @@
         <v>1035</v>
       </c>
       <c r="B1035" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -13192,7 +13192,7 @@
         <v>1036</v>
       </c>
       <c r="B1036" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
@@ -13208,7 +13208,7 @@
         <v>1038</v>
       </c>
       <c r="B1038" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
@@ -13216,7 +13216,7 @@
         <v>1039</v>
       </c>
       <c r="B1039" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -13224,7 +13224,7 @@
         <v>1040</v>
       </c>
       <c r="B1040" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
@@ -13232,7 +13232,7 @@
         <v>1041</v>
       </c>
       <c r="B1041" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
@@ -13240,7 +13240,7 @@
         <v>1042</v>
       </c>
       <c r="B1042" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -13248,7 +13248,7 @@
         <v>1043</v>
       </c>
       <c r="B1043" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -13264,7 +13264,7 @@
         <v>1045</v>
       </c>
       <c r="B1045" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
@@ -13272,7 +13272,7 @@
         <v>1046</v>
       </c>
       <c r="B1046" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -13288,7 +13288,7 @@
         <v>1048</v>
       </c>
       <c r="B1048" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -13304,7 +13304,7 @@
         <v>1050</v>
       </c>
       <c r="B1050" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -13320,7 +13320,7 @@
         <v>1052</v>
       </c>
       <c r="B1052" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
@@ -13352,7 +13352,7 @@
         <v>1056</v>
       </c>
       <c r="B1056" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -13360,7 +13360,7 @@
         <v>1057</v>
       </c>
       <c r="B1057" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -13368,7 +13368,7 @@
         <v>1058</v>
       </c>
       <c r="B1058" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
@@ -13376,7 +13376,7 @@
         <v>1059</v>
       </c>
       <c r="B1059" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -13408,7 +13408,7 @@
         <v>1063</v>
       </c>
       <c r="B1063" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -13416,7 +13416,7 @@
         <v>1064</v>
       </c>
       <c r="B1064" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
@@ -13424,7 +13424,7 @@
         <v>1065</v>
       </c>
       <c r="B1065" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
@@ -13432,7 +13432,7 @@
         <v>1066</v>
       </c>
       <c r="B1066" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -13440,7 +13440,7 @@
         <v>1067</v>
       </c>
       <c r="B1067" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -13448,7 +13448,7 @@
         <v>1068</v>
       </c>
       <c r="B1068" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -13464,7 +13464,7 @@
         <v>1070</v>
       </c>
       <c r="B1070" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
@@ -13480,7 +13480,7 @@
         <v>1072</v>
       </c>
       <c r="B1072" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -13496,7 +13496,7 @@
         <v>1074</v>
       </c>
       <c r="B1074" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
@@ -13504,7 +13504,7 @@
         <v>1075</v>
       </c>
       <c r="B1075" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
@@ -13512,7 +13512,7 @@
         <v>1076</v>
       </c>
       <c r="B1076" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -13528,7 +13528,7 @@
         <v>1078</v>
       </c>
       <c r="B1078" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -13544,7 +13544,7 @@
         <v>1080</v>
       </c>
       <c r="B1080" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
@@ -13552,7 +13552,7 @@
         <v>1081</v>
       </c>
       <c r="B1081" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
@@ -13568,7 +13568,7 @@
         <v>1083</v>
       </c>
       <c r="B1083" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -13576,7 +13576,7 @@
         <v>1084</v>
       </c>
       <c r="B1084" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
@@ -13584,7 +13584,7 @@
         <v>1085</v>
       </c>
       <c r="B1085" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -13592,7 +13592,7 @@
         <v>1086</v>
       </c>
       <c r="B1086" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -13600,7 +13600,7 @@
         <v>1087</v>
       </c>
       <c r="B1087" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
@@ -13608,7 +13608,7 @@
         <v>1088</v>
       </c>
       <c r="B1088" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -13624,7 +13624,7 @@
         <v>1090</v>
       </c>
       <c r="B1090" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
@@ -13632,7 +13632,7 @@
         <v>1091</v>
       </c>
       <c r="B1091" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -13648,7 +13648,7 @@
         <v>1093</v>
       </c>
       <c r="B1093" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
@@ -13656,7 +13656,7 @@
         <v>1094</v>
       </c>
       <c r="B1094" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -13664,7 +13664,7 @@
         <v>1095</v>
       </c>
       <c r="B1095" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -13680,7 +13680,7 @@
         <v>1097</v>
       </c>
       <c r="B1097" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
@@ -13688,7 +13688,7 @@
         <v>1098</v>
       </c>
       <c r="B1098" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -13696,7 +13696,7 @@
         <v>1099</v>
       </c>
       <c r="B1099" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
@@ -13704,7 +13704,7 @@
         <v>1100</v>
       </c>
       <c r="B1100" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
@@ -13712,7 +13712,7 @@
         <v>1101</v>
       </c>
       <c r="B1101" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -13728,7 +13728,7 @@
         <v>1103</v>
       </c>
       <c r="B1103" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
@@ -13752,7 +13752,7 @@
         <v>1106</v>
       </c>
       <c r="B1106" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
@@ -13768,7 +13768,7 @@
         <v>1108</v>
       </c>
       <c r="B1108" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
@@ -13784,7 +13784,7 @@
         <v>1110</v>
       </c>
       <c r="B1110" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -13808,7 +13808,7 @@
         <v>1113</v>
       </c>
       <c r="B1113" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
@@ -13824,7 +13824,7 @@
         <v>1115</v>
       </c>
       <c r="B1115" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -13832,7 +13832,7 @@
         <v>1116</v>
       </c>
       <c r="B1116" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
@@ -13840,7 +13840,7 @@
         <v>1117</v>
       </c>
       <c r="B1117" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
@@ -13848,7 +13848,7 @@
         <v>1118</v>
       </c>
       <c r="B1118" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
@@ -13856,7 +13856,7 @@
         <v>1119</v>
       </c>
       <c r="B1119" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
@@ -13864,7 +13864,7 @@
         <v>1120</v>
       </c>
       <c r="B1120" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
@@ -13896,7 +13896,7 @@
         <v>1124</v>
       </c>
       <c r="B1124" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
@@ -13904,7 +13904,7 @@
         <v>1125</v>
       </c>
       <c r="B1125" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
@@ -13912,7 +13912,7 @@
         <v>1126</v>
       </c>
       <c r="B1126" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
@@ -13928,7 +13928,7 @@
         <v>1128</v>
       </c>
       <c r="B1128" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
@@ -13936,7 +13936,7 @@
         <v>1129</v>
       </c>
       <c r="B1129" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
@@ -13944,7 +13944,7 @@
         <v>1130</v>
       </c>
       <c r="B1130" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
@@ -13960,7 +13960,7 @@
         <v>1132</v>
       </c>
       <c r="B1132" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
@@ -13968,7 +13968,7 @@
         <v>1133</v>
       </c>
       <c r="B1133" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
@@ -13976,7 +13976,7 @@
         <v>1134</v>
       </c>
       <c r="B1134" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
@@ -13984,7 +13984,7 @@
         <v>1135</v>
       </c>
       <c r="B1135" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
@@ -14000,7 +14000,7 @@
         <v>1137</v>
       </c>
       <c r="B1137" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
@@ -14024,7 +14024,7 @@
         <v>1140</v>
       </c>
       <c r="B1140" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
@@ -14040,7 +14040,7 @@
         <v>1142</v>
       </c>
       <c r="B1142" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
@@ -14048,7 +14048,7 @@
         <v>1143</v>
       </c>
       <c r="B1143" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
@@ -14056,7 +14056,7 @@
         <v>1144</v>
       </c>
       <c r="B1144" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
@@ -14064,7 +14064,7 @@
         <v>1145</v>
       </c>
       <c r="B1145" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
@@ -14088,7 +14088,7 @@
         <v>1148</v>
       </c>
       <c r="B1148" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
@@ -14096,7 +14096,7 @@
         <v>1149</v>
       </c>
       <c r="B1149" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
@@ -14368,7 +14368,7 @@
         <v>1183</v>
       </c>
       <c r="B1183" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
@@ -15200,7 +15200,7 @@
         <v>1287</v>
       </c>
       <c r="B1287" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1288" spans="1:2">
@@ -15208,7 +15208,7 @@
         <v>1288</v>
       </c>
       <c r="B1288" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1289" spans="1:2">
@@ -15256,7 +15256,7 @@
         <v>1294</v>
       </c>
       <c r="B1294" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
@@ -15264,7 +15264,7 @@
         <v>1295</v>
       </c>
       <c r="B1295" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1296" spans="1:2">
@@ -15288,7 +15288,7 @@
         <v>1298</v>
       </c>
       <c r="B1298" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
@@ -15296,7 +15296,7 @@
         <v>1299</v>
       </c>
       <c r="B1299" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1300" spans="1:2">
@@ -15352,7 +15352,7 @@
         <v>1306</v>
       </c>
       <c r="B1306" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
@@ -15360,7 +15360,7 @@
         <v>1307</v>
       </c>
       <c r="B1307" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
@@ -15376,7 +15376,7 @@
         <v>1309</v>
       </c>
       <c r="B1309" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1310" spans="1:2">
@@ -15384,7 +15384,7 @@
         <v>1310</v>
       </c>
       <c r="B1310" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
@@ -15464,7 +15464,7 @@
         <v>1320</v>
       </c>
       <c r="B1320" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
@@ -15480,7 +15480,7 @@
         <v>1322</v>
       </c>
       <c r="B1322" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1323" spans="1:2">
@@ -15488,7 +15488,7 @@
         <v>1323</v>
       </c>
       <c r="B1323" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1324" spans="1:2">
@@ -15544,7 +15544,7 @@
         <v>1330</v>
       </c>
       <c r="B1330" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1331" spans="1:2">
@@ -15552,7 +15552,7 @@
         <v>1331</v>
       </c>
       <c r="B1331" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1332" spans="1:2">
@@ -15560,7 +15560,7 @@
         <v>1332</v>
       </c>
       <c r="B1332" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
@@ -15568,7 +15568,7 @@
         <v>1333</v>
       </c>
       <c r="B1333" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
@@ -15592,7 +15592,7 @@
         <v>1336</v>
       </c>
       <c r="B1336" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
@@ -15600,7 +15600,7 @@
         <v>1337</v>
       </c>
       <c r="B1337" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1338" spans="1:2">
@@ -15608,7 +15608,7 @@
         <v>1338</v>
       </c>
       <c r="B1338" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1339" spans="1:2">
@@ -15616,7 +15616,7 @@
         <v>1339</v>
       </c>
       <c r="B1339" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1340" spans="1:2">
@@ -15632,7 +15632,7 @@
         <v>1341</v>
       </c>
       <c r="B1341" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1342" spans="1:2">
@@ -15648,7 +15648,7 @@
         <v>1343</v>
       </c>
       <c r="B1343" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1344" spans="1:2">
@@ -15680,7 +15680,7 @@
         <v>1347</v>
       </c>
       <c r="B1347" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1348" spans="1:2">
@@ -15688,7 +15688,7 @@
         <v>1348</v>
       </c>
       <c r="B1348" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
@@ -15696,7 +15696,7 @@
         <v>1349</v>
       </c>
       <c r="B1349" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1350" spans="1:2">
@@ -15712,7 +15712,7 @@
         <v>1351</v>
       </c>
       <c r="B1351" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1352" spans="1:2">
@@ -15720,7 +15720,7 @@
         <v>1352</v>
       </c>
       <c r="B1352" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1353" spans="1:2">
@@ -15728,7 +15728,7 @@
         <v>1353</v>
       </c>
       <c r="B1353" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1354" spans="1:2">
@@ -15736,7 +15736,7 @@
         <v>1354</v>
       </c>
       <c r="B1354" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1355" spans="1:2">
@@ -15752,7 +15752,7 @@
         <v>1356</v>
       </c>
       <c r="B1356" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1357" spans="1:2">
@@ -15776,7 +15776,7 @@
         <v>1359</v>
       </c>
       <c r="B1359" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
@@ -15792,7 +15792,7 @@
         <v>1361</v>
       </c>
       <c r="B1361" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
@@ -15800,7 +15800,7 @@
         <v>1362</v>
       </c>
       <c r="B1362" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
@@ -15808,7 +15808,7 @@
         <v>1363</v>
       </c>
       <c r="B1363" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1364" spans="1:2">
@@ -15824,7 +15824,7 @@
         <v>1365</v>
       </c>
       <c r="B1365" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
@@ -15832,7 +15832,7 @@
         <v>1366</v>
       </c>
       <c r="B1366" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
@@ -15872,7 +15872,7 @@
         <v>1371</v>
       </c>
       <c r="B1371" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1372" spans="1:2">
@@ -15880,7 +15880,7 @@
         <v>1372</v>
       </c>
       <c r="B1372" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1373" spans="1:2">
@@ -15888,7 +15888,7 @@
         <v>1373</v>
       </c>
       <c r="B1373" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
@@ -15904,7 +15904,7 @@
         <v>1375</v>
       </c>
       <c r="B1375" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
@@ -15920,7 +15920,7 @@
         <v>1377</v>
       </c>
       <c r="B1377" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1378" spans="1:2">
@@ -15944,7 +15944,7 @@
         <v>1380</v>
       </c>
       <c r="B1380" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
@@ -15960,7 +15960,7 @@
         <v>1382</v>
       </c>
       <c r="B1382" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
@@ -15976,7 +15976,7 @@
         <v>1384</v>
       </c>
       <c r="B1384" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
@@ -15984,7 +15984,7 @@
         <v>1385</v>
       </c>
       <c r="B1385" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1386" spans="1:2">
@@ -16000,7 +16000,7 @@
         <v>1387</v>
       </c>
       <c r="B1387" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
@@ -16056,7 +16056,7 @@
         <v>1394</v>
       </c>
       <c r="B1394" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
@@ -16064,7 +16064,7 @@
         <v>1395</v>
       </c>
       <c r="B1395" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
@@ -16072,7 +16072,7 @@
         <v>1396</v>
       </c>
       <c r="B1396" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1397" spans="1:2">
@@ -16080,7 +16080,7 @@
         <v>1397</v>
       </c>
       <c r="B1397" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1398" spans="1:2">
@@ -16088,7 +16088,7 @@
         <v>1398</v>
       </c>
       <c r="B1398" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1399" spans="1:2">
@@ -16096,7 +16096,7 @@
         <v>1399</v>
       </c>
       <c r="B1399" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
@@ -16112,7 +16112,7 @@
         <v>1401</v>
       </c>
       <c r="B1401" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1402" spans="1:2">
@@ -16128,7 +16128,7 @@
         <v>1403</v>
       </c>
       <c r="B1403" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1404" spans="1:2">
@@ -16136,7 +16136,7 @@
         <v>1404</v>
       </c>
       <c r="B1404" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1405" spans="1:2">
@@ -16144,7 +16144,7 @@
         <v>1405</v>
       </c>
       <c r="B1405" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1406" spans="1:2">
@@ -16160,7 +16160,7 @@
         <v>1407</v>
       </c>
       <c r="B1407" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
@@ -16176,7 +16176,7 @@
         <v>1409</v>
       </c>
       <c r="B1409" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1410" spans="1:2">
@@ -16192,7 +16192,7 @@
         <v>1411</v>
       </c>
       <c r="B1411" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1412" spans="1:2">
@@ -16200,7 +16200,7 @@
         <v>1412</v>
       </c>
       <c r="B1412" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1413" spans="1:2">
@@ -16224,7 +16224,7 @@
         <v>1415</v>
       </c>
       <c r="B1415" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1416" spans="1:2">
@@ -16232,7 +16232,7 @@
         <v>1416</v>
       </c>
       <c r="B1416" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1417" spans="1:2">
@@ -16248,7 +16248,7 @@
         <v>1418</v>
       </c>
       <c r="B1418" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1419" spans="1:2">
@@ -16264,7 +16264,7 @@
         <v>1420</v>
       </c>
       <c r="B1420" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1421" spans="1:2">
@@ -16272,7 +16272,7 @@
         <v>1421</v>
       </c>
       <c r="B1421" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1422" spans="1:2">
@@ -16288,7 +16288,7 @@
         <v>1423</v>
       </c>
       <c r="B1423" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1424" spans="1:2">
@@ -16296,7 +16296,7 @@
         <v>1424</v>
       </c>
       <c r="B1424" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1425" spans="1:2">
@@ -16304,7 +16304,7 @@
         <v>1425</v>
       </c>
       <c r="B1425" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
@@ -16312,7 +16312,7 @@
         <v>1426</v>
       </c>
       <c r="B1426" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
@@ -16320,7 +16320,7 @@
         <v>1427</v>
       </c>
       <c r="B1427" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
@@ -16352,7 +16352,7 @@
         <v>1431</v>
       </c>
       <c r="B1431" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1432" spans="1:2">
@@ -16360,7 +16360,7 @@
         <v>1432</v>
       </c>
       <c r="B1432" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1433" spans="1:2">
@@ -16368,7 +16368,7 @@
         <v>1433</v>
       </c>
       <c r="B1433" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
@@ -16376,7 +16376,7 @@
         <v>1434</v>
       </c>
       <c r="B1434" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1435" spans="1:2">
@@ -16392,7 +16392,7 @@
         <v>1436</v>
       </c>
       <c r="B1436" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1437" spans="1:2">
@@ -16400,7 +16400,7 @@
         <v>1437</v>
       </c>
       <c r="B1437" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1438" spans="1:2">
@@ -16416,7 +16416,7 @@
         <v>1439</v>
       </c>
       <c r="B1439" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
@@ -16424,7 +16424,7 @@
         <v>1440</v>
       </c>
       <c r="B1440" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1441" spans="1:2">
@@ -16432,7 +16432,7 @@
         <v>1441</v>
       </c>
       <c r="B1441" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1442" spans="1:2">
@@ -16464,7 +16464,7 @@
         <v>1445</v>
       </c>
       <c r="B1445" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
@@ -16472,7 +16472,7 @@
         <v>1446</v>
       </c>
       <c r="B1446" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
@@ -16480,7 +16480,7 @@
         <v>1447</v>
       </c>
       <c r="B1447" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
@@ -16496,7 +16496,7 @@
         <v>1449</v>
       </c>
       <c r="B1449" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1450" spans="1:2">
@@ -16512,7 +16512,7 @@
         <v>1451</v>
       </c>
       <c r="B1451" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1452" spans="1:2">
@@ -16520,7 +16520,7 @@
         <v>1452</v>
       </c>
       <c r="B1452" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1453" spans="1:2">
@@ -16536,7 +16536,7 @@
         <v>1454</v>
       </c>
       <c r="B1454" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
@@ -16544,7 +16544,7 @@
         <v>1455</v>
       </c>
       <c r="B1455" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1456" spans="1:2">
@@ -16560,7 +16560,7 @@
         <v>1457</v>
       </c>
       <c r="B1457" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
@@ -16568,7 +16568,7 @@
         <v>1458</v>
       </c>
       <c r="B1458" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1459" spans="1:2">
@@ -16592,7 +16592,7 @@
         <v>1461</v>
       </c>
       <c r="B1461" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1462" spans="1:2">
@@ -16608,7 +16608,7 @@
         <v>1463</v>
       </c>
       <c r="B1463" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
@@ -16616,7 +16616,7 @@
         <v>1464</v>
       </c>
       <c r="B1464" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
